--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E947942-ED87-4F85-B5A7-C54B12BACD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5AE676-5500-4CCE-8AA8-3A4392C4C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
       <text>
         <r>
           <rPr>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="198">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1176,6 +1176,36 @@
   </si>
   <si>
     <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>S1W1D1</t>
+  </si>
+  <si>
+    <t>S1W1D2</t>
+  </si>
+  <si>
+    <t>S1W2D1</t>
+  </si>
+  <si>
+    <t>S1W2D2</t>
+  </si>
+  <si>
+    <t>S2W1D1</t>
+  </si>
+  <si>
+    <t>S2W1D2</t>
+  </si>
+  <si>
+    <t>S2W2D1</t>
+  </si>
+  <si>
+    <t>S2W2D2</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1914,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2114,6 +2144,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3878,7 +3910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -4564,7 +4596,7 @@
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,23 +5127,23 @@
     <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
       <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="88" t="s">
         <v>41</v>
@@ -5120,7 +5152,7 @@
       <c r="E5" s="89"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="86" t="s">
         <v>2</v>
@@ -5128,12 +5160,14 @@
       <c r="D6" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="85">
         <v>2025</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="90" t="s">
         <v>119</v>
@@ -5141,176 +5175,340 @@
       <c r="D7" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="93" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="81">
+        <f>100/GRID!H6</f>
+        <v>113.63636363636364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="123">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>$F$9*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="123">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H17" si="0">$F$9*F11</f>
+        <v>5.6818181818181825</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="123">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>11.363636363636365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="123">
+        <v>0.15</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>17.045454545454547</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="123">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>22.72727272727273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="123">
+        <v>0.15</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>17.045454545454547</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="123">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>22.72727272727273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="80" t="str">
+        <f>FI_Comm!E$13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="123">
+        <v>0.15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="I17" s="124">
+        <f>SUM(F10:F17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="109" t="str">
+        <f>FI_Process!E19</f>
+        <v>DMD_FIN_ELC</v>
+      </c>
+      <c r="D25" s="109" t="str">
+        <f>FI_Process!F19</f>
+        <v>Final electricity demand</v>
+      </c>
+      <c r="E25" s="109" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="F25" s="109" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="81">
-        <f>100/GRID!H6</f>
-        <v>113.63636363636364</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="109" t="str">
-        <f>FI_Process!E19</f>
-        <v>DMD_FIN_ELC</v>
-      </c>
-      <c r="D17" s="109" t="str">
-        <f>FI_Process!F19</f>
-        <v>Final electricity demand</v>
-      </c>
-      <c r="E17" s="109" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="F17" s="109" t="str">
-        <f>FI_Comm!E13</f>
-        <v>ELC_FIN</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109">
+      <c r="G25" s="109"/>
+      <c r="H25" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I25" s="109">
         <v>1</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
